--- a/牛客笔试题/继承.xlsx
+++ b/牛客笔试题/继承.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,36 +32,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,74 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -150,38 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,6 +185,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,31 +311,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,139 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,60 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +405,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -483,153 +461,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="184150" y="241300"/>
-          <a:ext cx="3733800" cy="4000500"/>
+          <a:off x="184150" y="234950"/>
+          <a:ext cx="4090035" cy="3860800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +763,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="1993900"/>
-          <a:ext cx="2933700" cy="266700"/>
+          <a:off x="4549140" y="1924050"/>
+          <a:ext cx="3206115" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="4943475"/>
+          <a:ext cx="4191000" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240030" y="11382375"/>
+          <a:ext cx="8343900" cy="7038975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,13 +1153,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.27272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3.275" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.27272727272727" customWidth="1"/>
+    <col min="1" max="16384" width="3.275" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,7 +1178,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1118,7 +1195,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/继承.xlsx
+++ b/牛客笔试题/继承.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -32,83 +32,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,48 +170,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,19 +185,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,163 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,43 +379,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,6 +412,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -453,11 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -849,6 +849,384 @@
         <a:xfrm>
           <a:off x="240030" y="11382375"/>
           <a:ext cx="8343900" cy="7038975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="19402425"/>
+          <a:ext cx="4381500" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5126355" y="20364450"/>
+          <a:ext cx="8324850" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="27641550"/>
+          <a:ext cx="5076825" cy="5943600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5337810" y="29984700"/>
+          <a:ext cx="6096000" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5596890" y="31461075"/>
+          <a:ext cx="3076575" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>88265</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394970" y="35937825"/>
+          <a:ext cx="6181725" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="37814250"/>
+          <a:ext cx="7362825" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="43014900"/>
+          <a:ext cx="6934200" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="48748950"/>
+          <a:ext cx="8039100" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1153,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="AG273" sqref="AG273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.275" defaultRowHeight="13.5"/>

--- a/牛客笔试题/继承.xlsx
+++ b/牛客笔试题/继承.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="10950"/>
+    <workbookView windowWidth="24015" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,28 +33,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,6 +70,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -76,105 +169,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,43 +185,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,127 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,24 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,11 +411,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,21 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,6 +1227,90 @@
         <a:xfrm>
           <a:off x="327660" y="48748950"/>
           <a:ext cx="8039100" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="691515" y="51377850"/>
+          <a:ext cx="4667250" cy="7277100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="760095" y="59007375"/>
+          <a:ext cx="7534275" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="AG273" sqref="AG273"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="AB312" sqref="AB312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.275" defaultRowHeight="13.5"/>
